--- a/학습자료/단답형/객관식_국어_복습_의미.xlsx
+++ b/학습자료/단답형/객관식_국어_복습_의미.xlsx
@@ -450,14 +450,14 @@
         <is>
           <t>일의 진행 과정에서 가장 중요한 대목
 그는 [   ]을 무사히 넘겼다
-1. 빗먹다
-2. 주체 높임 선어말 어미
-3. 줄목</t>
+1. 줄목
+2. 하늬바람
+3. 주체 높임 선어말 어미</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3, 줄목</t>
+          <t>1, 줄목</t>
         </is>
       </c>
     </row>
@@ -466,14 +466,14 @@
         <is>
           <t>이미 내디뎌 걷고 있는 그대로의 걸음
 그 사람들고 [   ]으로 그리 내달았다
-1. 모습이
-2. 선걸음
-3. 게</t>
+1. 선걸음
+2. 잔입
+3. 갈무리</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2, 선걸음</t>
+          <t>1, 선걸음</t>
         </is>
       </c>
     </row>
@@ -482,14 +482,14 @@
         <is>
           <t>물건 따위를 잘 정리하거나 간수함
 겨울 동안 [   ]를 했던 산나물을 팔았다
-1. 만수받이
-2. 갈무리
-3. 장사꾼</t>
+1. 갈무리
+2. 잔입
+3. 윤똑똑이</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 갈무리</t>
+          <t>1, 갈무리</t>
         </is>
       </c>
     </row>
@@ -498,8 +498,8 @@
         <is>
           <t>옷을 입고 매만진 맵시
 그는 인물보다 [   ]가 쓰레기꾼 축에 섞이기는 아까웠다
-1. 줄목
-2. 모습이
+1. 치살리다
+2. 높새바람
 3. 맨드리</t>
         </is>
       </c>
@@ -514,14 +514,14 @@
         <is>
           <t>음식을 먹지 않음
 그녀는 [   ]으로 출근 시간이 되기만을 기다렸다
-1. 윤똑똑이
-2. 데알다
-3. 잔입</t>
+1. 빗들다
+2. 잔입
+3. 모습이</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 잔입</t>
+          <t>2, 잔입</t>
         </is>
       </c>
     </row>
@@ -529,14 +529,14 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>보드랍고 화창한 바람
-1. 명지바람
-2. 빗들다
-3. 살바람</t>
+1. ~할까 두렵다
+2. 높임의 호격조사
+3. 명지바람</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1, 명지바람</t>
+          <t>3, 명지바람</t>
         </is>
       </c>
     </row>
@@ -544,14 +544,14 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>서쪽에서 부는 바람
-1. 윤똑똑이
-2. 학을 떼다
-3. 하늬바람</t>
+1. 빗들다
+2. 하늬바람
+3. 만수받이</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3, 하늬바람</t>
+          <t>2, 하늬바람</t>
         </is>
       </c>
     </row>
@@ -559,14 +559,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>좁은 틈으로 새어 들어오는 바람, 혹은 초봄에 부는 찬 바람
-1. 상없다
-2. 살바람
-3. 물건</t>
+1. 살바람
+2. 명지바람
+3. 만수받이</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 살바람</t>
+          <t>1, 살바람</t>
         </is>
       </c>
     </row>
@@ -574,14 +574,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>북동풍, 봄~초여름에 걸쳐 태백산맥을 넘어 영서 지방으로 부는 고온 건조한 바람
-1. 강조 접미사
-2. 높새바람
-3. 변죽을 울리다</t>
+1. 만수받이
+2. 잔입
+3. 높새바람</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 높새바람</t>
+          <t>3, 높새바람</t>
         </is>
       </c>
     </row>
@@ -590,14 +590,14 @@
         <is>
           <t>1) 아주 귀찮게 구는 말이나 행동을 싫증 내지 않고 잘 받아 주는 일
 2 [민속 ] 토속 신앙에서, 무당이 굿을 할 때 한 사람이 소리하면 다른 사람이 따라서 같은 소리를 받아 하는 일
-1. 만수받이
-2. 데알다
-3. 윤똑똑이</t>
+1. 강조 접미사
+2. 학을 떼다
+3. 만수받이</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1, 만수받이</t>
+          <t>3, 만수받이</t>
         </is>
       </c>
     </row>
@@ -605,14 +605,14 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>자기만 혼자 잘나고 영악한 체하는 사람을 낮잡아 이르는 말
-1. 상없다
-2. 높임의 호격조사
-3. 윤똑똑이</t>
+1. 장사꾼
+2. 윤똑똑이
+3. 동티</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3, 윤똑똑이</t>
+          <t>2, 윤똑똑이</t>
         </is>
       </c>
     </row>
@@ -620,9 +620,9 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>이유 없이 남의 말에 반대하기를 좋아하는 사람을 얕잡아 이르는 말
-1. 오그랑이
+1. 살바람
 2. 트레바리
-3. 맨드리</t>
+3. 하늬바람</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -636,8 +636,8 @@
         <is>
           <t>1) 안쪽으로 오목하게 들어가거나 주름이 잡힌 물건
 2 마음씨가 바르지 못한 사람을 비유적으로 이르는 말
-1. 주체 높임 선어말 어미
-2. 강조 접미사
+1. 빗먹다
+2. 줄목
 3. 오그랑이</t>
         </is>
       </c>
@@ -651,14 +651,14 @@
       <c r="A15" t="inlineStr">
         <is>
           <t>황후(뜻)
-1. 물건
-2. 게
-3. 강조 접미사</t>
+1. 오금을 펴다
+2. 물건
+3. 트레바리</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>1, 물건</t>
+          <t>2, 물건</t>
         </is>
       </c>
     </row>
@@ -666,14 +666,14 @@
       <c r="A16" t="inlineStr">
         <is>
           <t>동난지이(뜻)
-1. 트레바리
-2. 선걸음
-3. 게</t>
+1. ~할까 두렵다
+2. 게
+3. 빗먹다</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3, 게</t>
+          <t>2, 게</t>
         </is>
       </c>
     </row>
@@ -681,9 +681,9 @@
       <c r="A17" t="inlineStr">
         <is>
           <t>쟝스(뜻)
-1. 잔입
+1. 게
 2. 장사꾼
-3. 게</t>
+3. 변죽을 울리다</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -696,9 +696,9 @@
       <c r="A18" t="inlineStr">
         <is>
           <t>아리(뜻)
-1. 갈무리
+1. 빗먹다
 2. 다리
-3. 만수받이</t>
+3. 동티</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -711,14 +711,14 @@
       <c r="A19" t="inlineStr">
         <is>
           <t>하(고전)
-1. 상없다
-2. 게
-3. 높임의 호격조사</t>
+1. 높임의 호격조사
+2. 오그랑이
+3. ~할까 두렵다</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3, 높임의 호격조사</t>
+          <t>1, 높임의 호격조사</t>
         </is>
       </c>
     </row>
@@ -726,14 +726,14 @@
       <c r="A20" t="inlineStr">
         <is>
           <t>곰(고전)
-1. 다리
-2. 맨드리
-3. 강조 접미사</t>
+1. 강조 접미사
+2. 빗먹다
+3. 맨드리</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, 강조 접미사</t>
+          <t>1, 강조 접미사</t>
         </is>
       </c>
     </row>
@@ -741,8 +741,8 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>샤(고전)
-1. 빗들다
-2. 줄목
+1. 치살리다
+2. 상없다
 3. 주체 높임 선어말 어미</t>
         </is>
       </c>
@@ -756,8 +756,8 @@
       <c r="A22" t="inlineStr">
         <is>
           <t>ㄹ셰라(고전)
-1. 동티
-2. 학을 떼다
+1. 살바람
+2. 빗먹다
 3. ~할까 두렵다</t>
         </is>
       </c>
@@ -772,8 +772,8 @@
         <is>
           <t>즈이(고전)
 1. 모습이
-2. 마수를 걸다
-3. 강조 접미사</t>
+2. 학을 떼다
+3. 다리</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -786,14 +786,14 @@
       <c r="A24" t="inlineStr">
         <is>
           <t>마음이나 생각 따위가 잘못 들다
-1. 선걸음
-2. 빗들다
-3. 학을 떼다</t>
+1. 빗들다
+2. 상없다
+3. 갈무리</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2, 빗들다</t>
+          <t>1, 빗들다</t>
         </is>
       </c>
     </row>
@@ -802,8 +802,8 @@
         <is>
           <t>물건을 벨 때 칼이나 톱이 먹줄대로 나가지 아니 하고 비뚤어지게 잘못 들어가다
 1. 빗먹다
-2. 오그랑이
-3. 오금을 펴다</t>
+2. 윤똑똑이
+3. 하늬바람</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -816,9 +816,9 @@
       <c r="A26" t="inlineStr">
         <is>
           <t>보통의 이치에서 벗어나 막되고 상스럽다
-1. 다리
+1. 살바람
 2. 상없다
-3. 살바람</t>
+3. 장사꾼</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -831,14 +831,14 @@
       <c r="A27" t="inlineStr">
         <is>
           <t>지나치게 치켜세우다
-1. 장사꾼
-2. 빗들다
-3. 치살리다</t>
+1. 선걸음
+2. 치살리다
+3. 빗먹다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3, 치살리다</t>
+          <t>2, 치살리다</t>
         </is>
       </c>
     </row>
@@ -846,14 +846,14 @@
       <c r="A28" t="inlineStr">
         <is>
           <t>자세히 모르고 대강 또는 반쯤만 알다
-1. 빗들다
-2. 윤똑똑이
-3. 데알다</t>
+1. 데알다
+2. 명지바람
+3. 변죽을 울리다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3, 데알다</t>
+          <t>1, 데알다</t>
         </is>
       </c>
     </row>
@@ -861,14 +861,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>마음을 높고 여유 있게 지내다
-1. 치살리다
-2. 높새바람
-3. 오금을 펴다</t>
+1. 만수받이
+2. 오금을 펴다
+3. 트레바리</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3, 오금을 펴다</t>
+          <t>2, 오금을 펴다</t>
         </is>
       </c>
     </row>
@@ -876,14 +876,14 @@
       <c r="A30" t="inlineStr">
         <is>
           <t>(사람이) 직접 말을 하지 않고 둘러서 말을 하여 짐작하게 하다
-1. 잔입
-2. 치살리다
-3. 변죽을 울리다</t>
+1. 모습이
+2. 변죽을 울리다
+3. 선걸음</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3, 변죽을 울리다</t>
+          <t>2, 변죽을 울리다</t>
         </is>
       </c>
     </row>
@@ -891,14 +891,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>(사람이) 그날 장사, 또는 영업 시작 후 처음으로 물건을 팔다
-1. 빗들다
-2. 게
-3. 마수를 걸다</t>
+1. 명지바람
+2. 마수를 걸다
+3. 높새바람</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3, 마수를 걸다</t>
+          <t>2, 마수를 걸다</t>
         </is>
       </c>
     </row>
@@ -907,14 +907,14 @@
         <is>
           <t>1. 민속 땅, 돌, 나무 따위를 잘못 건드려 지신(地神)을 화나게 하여 재앙을 받는 일. 또는 그 재앙.
 2. 건드려서는 안 될 것을 공연히 건드려서 스스로 걱정이나 해를 입음. 또는 그 걱정이나 피해를 비유적으로 이르는 말.
-1. 동티
-2. 변죽을 울리다
-3. 마수를 걸다</t>
+1. ~할까 두렵다
+2. 동티
+3. 윤똑똑이</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1, 동티</t>
+          <t>2, 동티</t>
         </is>
       </c>
     </row>
@@ -922,14 +922,14 @@
       <c r="A33" t="inlineStr">
         <is>
           <t>괴롭거나 어려운 상황을 벗어나느라고 진땀을 빼거나, 그것에 거의 질려 버리다.
-1. 상없다
-2. 학을 떼다
-3. 다리</t>
+1. 변죽을 울리다
+2. 데알다
+3. 학을 떼다</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2, 학을 떼다</t>
+          <t>3, 학을 떼다</t>
         </is>
       </c>
     </row>
